--- a/Simulink Requirements/Requirements/SystemReqs_Original.xlsx
+++ b/Simulink Requirements/Requirements/SystemReqs_Original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fs-57-ah\vmgr$\home07\patcanny\Documents\Designer_Work_Flow\Simulink Requirements\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patcanny\OneDrive - MathWorks\Designer_Work_Flow\Simulink Requirements\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680AFEBD-A2A7-48F2-96C4-9D7016893E3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{680AFEBD-A2A7-48F2-96C4-9D7016893E3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{81B66B08-3DA3-4B21-A413-84D7BD9FE500}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,13 +183,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,13 +533,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -622,13 +632,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
     </row>
